--- a/public/assets/upload/차량 등록 양식.xlsx
+++ b/public/assets/upload/차량 등록 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정경수\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15007875-B7BC-46F9-8174-79697D5D2366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{910E8F8F-64C3-42B8-BEA2-136D2070E803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="756" windowWidth="17280" windowHeight="10428" xr2:uid="{4E250282-B138-44CA-AA3B-239459857021}"/>
+    <workbookView xWindow="1392" yWindow="2148" windowWidth="17280" windowHeight="10428" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>* 양식에 맞게 입력할 것!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>차종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,6 +45,10 @@
   </si>
   <si>
     <t>차대번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 양식에 맞게 입력할 것!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,13 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,47 +447,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432C6D26-1E5C-4573-B292-C3A076EBC880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="20.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="1" max="5" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
@@ -495,6 +506,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/assets/upload/차량 등록 양식.xlsx
+++ b/public/assets/upload/차량 등록 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정경수\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910E8F8F-64C3-42B8-BEA2-136D2070E803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C84BC-6C90-4978-A630-C26938215F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="2148" windowWidth="17280" windowHeight="10428" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="948" yWindow="3396" windowWidth="22128" windowHeight="8964" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>차종</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,13 +53,10 @@
   </si>
   <si>
     <t>* 차종은 숫자로 입력해주세요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: 경차, 2: 소형, 3: 중형 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">4: 대형, 5: 승합, 6: 상용 </t>
+    <t xml:space="preserve">                        1: 경차, 2: 소형, 3: 중형, 4: 대형, 5: 승합, 6: 상용 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -459,7 +456,7 @@
     <col min="1" max="5" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,39 +469,41 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/assets/upload/차량 등록 양식.xlsx
+++ b/public/assets/upload/차량 등록 양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정경수\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C84BC-6C90-4978-A630-C26938215F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E1BDA-0A15-404F-A46D-B40A9B08106D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="3396" windowWidth="22128" windowHeight="8964" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="6810" yWindow="2790" windowWidth="38700" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                        1: 경차, 2: 소형, 3: 중형, 4: 대형, 5: 승합, 6: 상용 </t>
+    <t xml:space="preserve">                        1: 경차, 2: 소형, 3: 중형, 4: 대형, 5: SUV, 6: 승합, 7: 상용, 8: 전기, 9: 외제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,15 +448,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="26.69921875" customWidth="1"/>
+    <col min="1" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="87.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -482,20 +483,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>

--- a/public/assets/upload/차량 등록 양식.xlsx
+++ b/public/assets/upload/차량 등록 양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E1BDA-0A15-404F-A46D-B40A9B08106D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1126127-916F-4B97-9ED9-F226C33BFE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2790" windowWidth="38700" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="38700" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,29 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>차종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>차량번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차대번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 양식에 맞게 입력할 것!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 차종은 숫자로 입력해주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                        1: 경차, 2: 소형, 3: 중형, 4: 대형, 5: SUV, 6: 승합, 7: 상용, 8: 전기, 9: 외제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,62 +429,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="87.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/assets/upload/차량 등록 양식.xlsx
+++ b/public/assets/upload/차량 등록 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1126127-916F-4B97-9ED9-F226C33BFE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581324E4-0368-4EC1-9441-5EAF54F74E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="38700" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="7245" yWindow="2925" windowWidth="34440" windowHeight="15945" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>차량번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>* 양식에 맞게 입력할 것!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 목록은 100개까지만 가능합니다. (101행까지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,38 +433,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
     </row>

--- a/public/assets/upload/차량 등록 양식.xlsx
+++ b/public/assets/upload/차량 등록 양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581324E4-0368-4EC1-9441-5EAF54F74E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9733AD-702B-4543-B548-47E46DBCE6A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="2925" windowWidth="34440" windowHeight="15945" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>차량번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>* 목록은 100개까지만 가능합니다. (101행까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차주전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,42 +437,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
     </row>

--- a/public/assets/upload/차량 등록 양식.xlsx
+++ b/public/assets/upload/차량 등록 양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9733AD-702B-4543-B548-47E46DBCE6A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26968235-592B-43A4-9F62-4CC9FC45DEFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="8505" yWindow="2430" windowWidth="29310" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>차량번호</t>
+    <t>차주전화번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 양식에 맞게 입력할 것!</t>
+    <t>* 주의 사항 *</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 목록은 100개까지만 가능합니다. (101행까지)</t>
+    <t>차량번호(띄어쓰기 x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차주전화번호</t>
+    <t>1. 목록은 한번에 최대 1,000개까지 업로드 가능합니다.
+2. 현재 시트에 데이터를 작성해주세요.
+3. 현재 양식에 알맞게 입력해주세요.
+4. 차량번호는 띄어쓰기를 제외하고 필수로 입력해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +84,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,18 +144,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,52 +487,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="7UpNtCZefbqxAp4GidBz5Oy501we0H6lbifit4t4oDsWR6+w3aRg745OedlR6TqWx5i2xGAtHGDVQyuU6imapw==" saltValue="kYYBoa+EkLvvV4gkQvEqLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
